--- a/Componentistica.xlsx
+++ b/Componentistica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lu\Desktop\TESI MAGISTRALE\Bibliografia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B8ADFA-E9B6-44D5-958D-6612DAFA4C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E867784-7903-4E44-9744-3A3E6235434C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{A5B83569-8F95-4D2F-A49D-CDD670FE0335}"/>
   </bookViews>
@@ -17,7 +17,8 @@
     <sheet name="Serie sterzo" sheetId="4" r:id="rId2"/>
     <sheet name="Ruote" sheetId="2" r:id="rId3"/>
     <sheet name="Movimento centrale" sheetId="5" r:id="rId4"/>
-    <sheet name="Canotto sella" sheetId="6" r:id="rId5"/>
+    <sheet name="Cambio" sheetId="7" r:id="rId5"/>
+    <sheet name="Canotto sella" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>TRAIL</t>
   </si>
@@ -135,13 +136,91 @@
   </si>
   <si>
     <t>30.9</t>
+  </si>
+  <si>
+    <t>Shimano GRX RX-815 Di2</t>
+  </si>
+  <si>
+    <t>Deragliatore anteriore</t>
+  </si>
+  <si>
+    <t>Deragliatore posteriore</t>
+  </si>
+  <si>
+    <t>Freni</t>
+  </si>
+  <si>
+    <t>Shimano GRX RX-810 hydraulic, Shimano SM-RT800 rotors [F]160mm, [R]160mm</t>
+  </si>
+  <si>
+    <t>Shimano GRX RX-810 hydraulic</t>
+  </si>
+  <si>
+    <t>Comandi freno</t>
+  </si>
+  <si>
+    <r>
+      <t>Altro aspetto di cui tener conto è la luce tra i foderi anteriore e posteriori</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>. Deve essere possibile montare coperture da ciclocross (quindi 700×33 – 700×35) ma anche osare di più, installando coperture che raggiungono i 700×40, in base alle proprie esigenze di utilizzo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Anche la forma costruttiva dei foderi deve essere esaminata, poiché i foderi posteriori di una gravel bike sono più lunghi di quelli di una bici da corsa (per via del passo più lungo tra le ruote)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>. Questa tecnica costruttiva si traduce in una flessione maggiore dei foderi e in un assorbimento migliore delle asperità del terreno, anche se la bici risulta meno reattiva (ma scopo delle gravel non è la massima espressione di potenza). Anche la curvatura dei foderi verticali è importante, poiché un’ampia curvatura finale prima della connessione ai forcellini garantisce maggior assorbimento e flessione, elevando il comfort generale in sella.</t>
+    </r>
+  </si>
+  <si>
+    <t>I sistemi con il perno invece presentano i forcellini forati, con il forcellino lato trasmissione filettato per consentire l’avvitamento del perno. I diametri variano ma solitamente troviamo un perno da 15mm all’anteriore e da 12mm al posteriore. </t>
+  </si>
+  <si>
+    <r>
+      <t>Per battuta s’intende la distanza delle facce di appoggio dei controdadi del mozzo, ovvero la luce interna tra i forcellini</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>. </t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.bikeitalia.it/ruote-gravel-guida-acquisto/</t>
+  </si>
+  <si>
+    <t>Mozzo</t>
+  </si>
+  <si>
+    <t>avvitarsi sul forcellino destro del telaio, che è anch’esso filettato. E’ la tecnologia ormai standard nel mondo mtb, che sta passando pian piano anche ad altre discipline;</t>
+  </si>
+  <si>
+    <t>Nei sistemi a perno passante invece troviamo 142mm al posteriore e 135 all’anteriore. Perno da 12</t>
+  </si>
+  <si>
+    <t>SHIMANO Mozzo Posteriore 12v 32 fori Deore XT FH-M8110 Freno a Disco Center Lock E-Thru 12x142mm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +245,27 @@
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF444444"/>
       <name val="Roboto"/>
     </font>
   </fonts>
@@ -219,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -234,6 +334,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,6 +838,709 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>56894</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Immagine 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3DF853-81C3-66F1-5C55-9177798F9B63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7109460" y="4693920"/>
+          <a:ext cx="7772400" cy="4339334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2910840</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1303946</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Immagine 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AFCDC55-165C-1B4D-651B-8367A13CEA81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="182880"/>
+          <a:ext cx="4297680" cy="2858426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1196340</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Immagine 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B151876-AB24-9806-F432-8D1CCF133E0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="106680" y="3558540"/>
+          <a:ext cx="2476500" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1051560</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>141604</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50122</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Immagine 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91DC83C9-19C6-7F70-7361-A13FE8A1C5EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="10338"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="3616324"/>
+          <a:ext cx="3794760" cy="2468838"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1661160</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Immagine 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E4B1CCD-C760-AD7F-DF54-B1D010922A71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="68580" y="6858000"/>
+          <a:ext cx="2979420" cy="2979420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2057400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Immagine 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E241F0-31C5-D8A3-9CB1-D52EBD0B1753}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3444240" y="6964680"/>
+          <a:ext cx="4991100" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30479</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2224332</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Immagine 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E57E6BE5-AD77-AADF-EB2D-DE42A090C3F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8496299" y="6987540"/>
+          <a:ext cx="4022653" cy="2415540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Immagine 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6B1469F-6531-3142-AEE5-0B9E0C8BED25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8618220" y="9723120"/>
+          <a:ext cx="2171700" cy="2712720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3680460</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Immagine 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{865BFD9F-BDCC-8599-B1F4-852AC951FDDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="11597" b="14742"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10896600" y="9639300"/>
+          <a:ext cx="3078480" cy="2644140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381209</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Immagine 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FED3B3E-FBF1-1A3E-659A-DBDA173FCCF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12504629" y="7040880"/>
+          <a:ext cx="5554771" cy="2255520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Immagine 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC78BCDF-54BB-9A77-2C70-D57E9E2C37A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1394460" y="12854940"/>
+          <a:ext cx="6263640" cy="4404360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>518159</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>443364</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Immagine 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C91B1F76-A62E-750A-4EBC-690418D91C16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7764779" y="12900660"/>
+          <a:ext cx="6851785" cy="3878580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Immagine 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7049F965-6399-A5CF-8673-CAB90708B422}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7711440" y="16863060"/>
+          <a:ext cx="6591300" cy="3139440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Immagine 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C9FEF1A-666B-EE2D-AFE1-9A4076701D6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6629400" y="114300"/>
+          <a:ext cx="3200400" cy="4465320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1162,8 +1980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E965CBA8-288A-4D1C-962A-6D16271246E3}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1231,10 +2049,114 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77715F6-1663-46E0-ACC3-B379C375BD6F}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="56.5546875" customWidth="1"/>
+    <col min="11" max="11" width="36.77734375" customWidth="1"/>
+    <col min="12" max="12" width="26.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="J4" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="202.8" x14ac:dyDescent="0.3">
+      <c r="J6" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="I9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A6C713-DACF-4093-B5F6-20A269180CF4}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
